--- a/nlp/sp_by_prov.xlsx
+++ b/nlp/sp_by_prov.xlsx
@@ -1241,7 +1241,7 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
@@ -1259,7 +1259,7 @@
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:39">

--- a/nlp/sp_by_prov.xlsx
+++ b/nlp/sp_by_prov.xlsx
@@ -777,9 +777,7 @@
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2">
         <v>1</v>
       </c>
@@ -822,7 +820,7 @@
         <v>4</v>
       </c>
       <c r="T2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U2" s="2">
         <v>2</v>
@@ -874,9 +872,7 @@
       <c r="A3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2">
         <v>1</v>
       </c>
@@ -901,7 +897,7 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
       <c r="T3" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -936,7 +932,7 @@
         <v>40</v>
       </c>
       <c r="B4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -965,7 +961,9 @@
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
+      <c r="T4" s="2">
+        <v>1</v>
+      </c>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2">
@@ -1267,7 +1265,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
@@ -1304,7 +1302,9 @@
         <v>1</v>
       </c>
       <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="T9" s="2">
+        <v>1</v>
+      </c>
       <c r="U9" s="2">
         <v>1</v>
       </c>
@@ -1473,9 +1473,7 @@
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="2">
         <v>1</v>
       </c>
@@ -1501,7 +1499,9 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="T12" s="2">
+        <v>1</v>
+      </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
@@ -1534,9 +1534,7 @@
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="2">
         <v>1</v>
       </c>
@@ -1569,7 +1567,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
@@ -3136,9 +3134,7 @@
       <c r="A43" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="2">
-        <v>1</v>
-      </c>
+      <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2">
         <v>1</v>
@@ -3158,7 +3154,9 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
+      <c r="T43" s="2">
+        <v>1</v>
+      </c>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>

--- a/nlp/sp_by_prov.xlsx
+++ b/nlp/sp_by_prov.xlsx
@@ -16,115 +16,115 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
+    <t>Ярославское Наместничество</t>
+  </si>
+  <si>
+    <t>Черниговское Наместничество</t>
+  </si>
+  <si>
+    <t>Харьковское Наместничество</t>
+  </si>
+  <si>
+    <t>Уфимское Наместничество</t>
+  </si>
+  <si>
+    <t>Тульское Наместничество</t>
+  </si>
+  <si>
+    <t>Тверское Наместничество</t>
+  </si>
+  <si>
+    <t>Тамбовское Наместничество</t>
+  </si>
+  <si>
+    <t>Смоленское Наместничество</t>
+  </si>
+  <si>
+    <t>Синбирское Наместничество</t>
+  </si>
+  <si>
+    <t>Саратовское Наместничество</t>
+  </si>
+  <si>
+    <t>Рязанское Наместничество</t>
+  </si>
+  <si>
+    <t>Рижское Наместничество</t>
+  </si>
+  <si>
+    <t>Псковское Наместничество</t>
+  </si>
+  <si>
+    <t>Полотское Наместничество</t>
+  </si>
+  <si>
+    <t>Пермское Наместничество</t>
+  </si>
+  <si>
+    <t>Пензенское Наместничество</t>
+  </si>
+  <si>
+    <t>Орловское Наместничество</t>
+  </si>
+  <si>
+    <t>Новогородское Наместничество</t>
+  </si>
+  <si>
+    <t>Новогород - Северское Наместничество</t>
+  </si>
+  <si>
+    <t>Нижегородское Наместничество</t>
+  </si>
+  <si>
+    <t>Московская Губерния</t>
+  </si>
+  <si>
+    <t>Могилевское Наместничество</t>
+  </si>
+  <si>
+    <t>Курское Наместничество</t>
+  </si>
+  <si>
+    <t>Костромское Наместничество</t>
+  </si>
+  <si>
+    <t>Киевское Наместничество</t>
+  </si>
+  <si>
+    <t>Калужское Наместничество</t>
+  </si>
+  <si>
+    <t>Казанское Наместничество</t>
+  </si>
+  <si>
+    <t>Кавказское Наместничество</t>
+  </si>
+  <si>
+    <t>Иркутское Наместничество</t>
+  </si>
+  <si>
+    <t>Екатеринославское Наместничество</t>
+  </si>
+  <si>
+    <t>Вятское Наместничество</t>
+  </si>
+  <si>
+    <t>Выборгское Наместничество</t>
+  </si>
+  <si>
+    <t>Воронежское Наместничество</t>
+  </si>
+  <si>
+    <t>Вологодское Наместничество</t>
+  </si>
+  <si>
+    <t>Владимерское Наместничество</t>
+  </si>
+  <si>
+    <t>Архангельское Наместничество</t>
+  </si>
+  <si>
     <t>None</t>
-  </si>
-  <si>
-    <t>Архангельское Наместничество</t>
-  </si>
-  <si>
-    <t>Владимерское Наместничество</t>
-  </si>
-  <si>
-    <t>Вологодское Наместничество</t>
-  </si>
-  <si>
-    <t>Воронежское Наместничество</t>
-  </si>
-  <si>
-    <t>Выборгское Наместничество</t>
-  </si>
-  <si>
-    <t>Вятское Наместничество</t>
-  </si>
-  <si>
-    <t>Екатеринославское Наместничество</t>
-  </si>
-  <si>
-    <t>Иркутское Наместничество</t>
-  </si>
-  <si>
-    <t>Кавказское Наместничество</t>
-  </si>
-  <si>
-    <t>Казанское Наместничество</t>
-  </si>
-  <si>
-    <t>Калужское Наместничество</t>
-  </si>
-  <si>
-    <t>Киевское Наместничество</t>
-  </si>
-  <si>
-    <t>Костромское Наместничество</t>
-  </si>
-  <si>
-    <t>Курское Наместничество</t>
-  </si>
-  <si>
-    <t>Могилевское Наместничество</t>
-  </si>
-  <si>
-    <t>Московская Губерния</t>
-  </si>
-  <si>
-    <t>Нижегородское Наместничество</t>
-  </si>
-  <si>
-    <t>Новогород - Северское Наместничество</t>
-  </si>
-  <si>
-    <t>Новогородское Наместничество</t>
-  </si>
-  <si>
-    <t>Орловское Наместничество</t>
-  </si>
-  <si>
-    <t>Пензенское Наместничество</t>
-  </si>
-  <si>
-    <t>Пермское Наместничество</t>
-  </si>
-  <si>
-    <t>Полотское Наместничество</t>
-  </si>
-  <si>
-    <t>Псковское Наместничество</t>
-  </si>
-  <si>
-    <t>Рижское Наместничество</t>
-  </si>
-  <si>
-    <t>Рязанское Наместничество</t>
-  </si>
-  <si>
-    <t>Саратовское Наместничество</t>
-  </si>
-  <si>
-    <t>Синбирское Наместничество</t>
-  </si>
-  <si>
-    <t>Смоленское Наместничество</t>
-  </si>
-  <si>
-    <t>Тамбовское Наместничество</t>
-  </si>
-  <si>
-    <t>Тверское Наместничество</t>
-  </si>
-  <si>
-    <t>Тульское Наместничество</t>
-  </si>
-  <si>
-    <t>Уфимское Наместничество</t>
-  </si>
-  <si>
-    <t>Харьковское Наместничество</t>
-  </si>
-  <si>
-    <t>Черниговское Наместничество</t>
-  </si>
-  <si>
-    <t>Ярославское Наместничество</t>
   </si>
   <si>
     <t>Total</t>
@@ -778,115 +778,115 @@
         <v>38</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
       <c r="I2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N2" s="2">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
         <v>2</v>
-      </c>
-      <c r="P2" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>1</v>
-      </c>
-      <c r="R2" s="2">
-        <v>7</v>
-      </c>
-      <c r="S2" s="2">
-        <v>4</v>
       </c>
       <c r="T2" s="2">
         <v>2</v>
       </c>
       <c r="U2" s="2">
+        <v>4</v>
+      </c>
+      <c r="V2" s="2">
+        <v>7</v>
+      </c>
+      <c r="W2" s="2">
+        <v>1</v>
+      </c>
+      <c r="X2" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="2">
         <v>2</v>
       </c>
-      <c r="V2" s="2">
-        <v>0</v>
-      </c>
-      <c r="W2" s="2">
-        <v>0</v>
-      </c>
-      <c r="X2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>1</v>
-      </c>
       <c r="Z2" s="2">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AA2" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB2" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD2" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="2">
         <v>3</v>
       </c>
-      <c r="AG2" s="2">
-        <v>10</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="2">
-        <v>0</v>
-      </c>
       <c r="AK2" s="2">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AL2" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="2">
         <v>119</v>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P3" s="2">
         <v>0</v>
@@ -966,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="Y3" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="2">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AA3" s="2">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="AG3" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH3" s="2">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>0</v>
       </c>
       <c r="AJ3" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AL3" s="2">
         <v>0</v>
@@ -1016,115 +1016,115 @@
         <v>40</v>
       </c>
       <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
       <c r="H4" s="2">
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>3</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
         <v>2</v>
       </c>
-      <c r="K4" s="2">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2">
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
         <v>32</v>
       </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
+      <c r="AA4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="2">
         <v>2</v>
       </c>
-      <c r="R4" s="2">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2">
-        <v>1</v>
-      </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2">
-        <v>3</v>
-      </c>
-      <c r="X4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>0</v>
-      </c>
       <c r="AE4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4" s="2">
         <v>0</v>
       </c>
       <c r="AG4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="2">
         <v>2</v>
-      </c>
-      <c r="AH4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="2">
-        <v>8</v>
-      </c>
-      <c r="AK4" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL4" s="2">
-        <v>0</v>
       </c>
       <c r="AM4" s="2">
         <v>76</v>
@@ -1138,109 +1138,109 @@
         <v>3</v>
       </c>
       <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2">
+        <v>8</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>7</v>
+      </c>
+      <c r="S5" s="2">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>5</v>
+      </c>
+      <c r="AJ5" s="2">
         <v>2</v>
       </c>
-      <c r="D5" s="2">
+      <c r="AK5" s="2">
         <v>2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>5</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>6</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>3</v>
-      </c>
-      <c r="P5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2">
-        <v>1</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2">
-        <v>1</v>
-      </c>
-      <c r="V5" s="2">
-        <v>7</v>
-      </c>
-      <c r="W5" s="2">
-        <v>0</v>
-      </c>
-      <c r="X5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="2">
-        <v>8</v>
-      </c>
-      <c r="AG5" s="2">
-        <v>6</v>
-      </c>
-      <c r="AH5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="2">
-        <v>0</v>
       </c>
       <c r="AL5" s="2">
         <v>3</v>
@@ -1257,109 +1257,109 @@
         <v>2</v>
       </c>
       <c r="C6" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
       </c>
       <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
       <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
         <v>2</v>
       </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="2">
         <v>19</v>
       </c>
-      <c r="O6" s="2">
+      <c r="AA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2">
         <v>2</v>
       </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="2">
+      <c r="AG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="2">
         <v>2</v>
       </c>
-      <c r="AA6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="2">
-        <v>2</v>
-      </c>
-      <c r="AH6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="2">
-        <v>0</v>
-      </c>
       <c r="AJ6" s="2">
         <v>0</v>
       </c>
       <c r="AK6" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="2">
         <v>2</v>
@@ -1376,109 +1376,109 @@
         <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
         <v>2</v>
       </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
         <v>4</v>
       </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2">
         <v>2</v>
       </c>
-      <c r="AA7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="2">
-        <v>1</v>
-      </c>
       <c r="AG7" s="2">
         <v>0</v>
       </c>
       <c r="AH7" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="2">
         <v>0</v>
       </c>
       <c r="AJ7" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AK7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL7" s="2">
         <v>0</v>
@@ -1498,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P8" s="2">
         <v>0</v>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="2">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AK8" s="2">
         <v>0</v>
@@ -1611,115 +1611,115 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
       </c>
       <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1</v>
+      </c>
+      <c r="T9" s="2">
+        <v>1</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>1</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
         <v>3</v>
       </c>
-      <c r="F9" s="2">
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="2">
         <v>2</v>
       </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
+      <c r="AA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2">
         <v>2</v>
       </c>
-      <c r="O9" s="2">
-        <v>1</v>
-      </c>
-      <c r="P9" s="2">
+      <c r="AI9" s="2">
         <v>3</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
-      </c>
-      <c r="R9" s="2">
-        <v>1</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2">
-        <v>1</v>
-      </c>
-      <c r="U9" s="2">
-        <v>1</v>
-      </c>
-      <c r="V9" s="2">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
-      <c r="X9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="2">
-        <v>2</v>
-      </c>
-      <c r="AG9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AH9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="2">
-        <v>0</v>
       </c>
       <c r="AJ9" s="2">
         <v>2</v>
       </c>
       <c r="AK9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL9" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM9" s="2">
         <v>31</v>
@@ -1733,13 +1733,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -1748,80 +1748,80 @@
         <v>0</v>
       </c>
       <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>1</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2">
         <v>2</v>
       </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
+      <c r="Z10" s="2">
         <v>17</v>
       </c>
-      <c r="O10" s="2">
+      <c r="AA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2">
         <v>2</v>
       </c>
-      <c r="P10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2">
-        <v>0</v>
-      </c>
-      <c r="S10" s="2">
-        <v>0</v>
-      </c>
-      <c r="T10" s="2">
-        <v>0</v>
-      </c>
-      <c r="U10" s="2">
-        <v>1</v>
-      </c>
-      <c r="V10" s="2">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2">
-        <v>0</v>
-      </c>
-      <c r="X10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="2">
-        <v>0</v>
-      </c>
       <c r="AG10" s="2">
         <v>0</v>
       </c>
@@ -1829,13 +1829,13 @@
         <v>0</v>
       </c>
       <c r="AI10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10" s="2">
         <v>0</v>
       </c>
       <c r="AK10" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="2">
         <v>1</v>
@@ -1849,19 +1849,19 @@
         <v>47</v>
       </c>
       <c r="B11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -1882,49 +1882,49 @@
         <v>1</v>
       </c>
       <c r="M11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>3</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2">
         <v>4</v>
       </c>
-      <c r="O11" s="2">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0</v>
-      </c>
-      <c r="S11" s="2">
-        <v>0</v>
-      </c>
-      <c r="T11" s="2">
-        <v>0</v>
-      </c>
-      <c r="U11" s="2">
-        <v>0</v>
-      </c>
-      <c r="V11" s="2">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2">
-        <v>3</v>
-      </c>
-      <c r="X11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>0</v>
-      </c>
       <c r="AA11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="2">
         <v>1</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="AD11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11" s="2">
         <v>0</v>
@@ -1945,19 +1945,19 @@
         <v>0</v>
       </c>
       <c r="AH11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="2">
         <v>0</v>
       </c>
       <c r="AJ11" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM11" s="2">
         <v>26</v>
@@ -1971,109 +1971,109 @@
         <v>0</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
       <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>1</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="2">
         <v>2</v>
       </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>5</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0</v>
-      </c>
-      <c r="T12" s="2">
-        <v>1</v>
-      </c>
-      <c r="U12" s="2">
-        <v>0</v>
-      </c>
-      <c r="V12" s="2">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2">
-        <v>0</v>
-      </c>
-      <c r="X12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="2">
-        <v>0</v>
-      </c>
       <c r="AG12" s="2">
         <v>0</v>
       </c>
       <c r="AH12" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="2">
         <v>0</v>
       </c>
       <c r="AJ12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL12" s="2">
         <v>0</v>
@@ -2087,28 +2087,28 @@
         <v>49</v>
       </c>
       <c r="B13" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
         <v>2</v>
       </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
       <c r="H13" s="2">
         <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
@@ -2117,10 +2117,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" s="2">
         <v>0</v>
@@ -2162,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="AA13" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AB13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="2">
         <v>0</v>
@@ -2174,28 +2174,28 @@
         <v>0</v>
       </c>
       <c r="AE13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13" s="2">
         <v>0</v>
       </c>
       <c r="AG13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="2">
         <v>2</v>
       </c>
-      <c r="AH13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="2">
-        <v>0</v>
-      </c>
       <c r="AJ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM13" s="2">
         <v>22</v>
@@ -2206,115 +2206,115 @@
         <v>50</v>
       </c>
       <c r="B14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
         <v>2</v>
       </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2">
         <v>2</v>
       </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="AA14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="2">
         <v>2</v>
       </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
+      <c r="AG14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="2">
         <v>2</v>
       </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>0</v>
-      </c>
-      <c r="R14" s="2">
-        <v>0</v>
-      </c>
-      <c r="S14" s="2">
-        <v>0</v>
-      </c>
-      <c r="T14" s="2">
-        <v>0</v>
-      </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
-      <c r="V14" s="2">
-        <v>0</v>
-      </c>
-      <c r="W14" s="2">
-        <v>0</v>
-      </c>
-      <c r="X14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AG14" s="2">
+      <c r="AJ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="2">
         <v>2</v>
       </c>
-      <c r="AH14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="2">
-        <v>3</v>
-      </c>
       <c r="AL14" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM14" s="2">
         <v>18</v>
@@ -2325,115 +2325,115 @@
         <v>51</v>
       </c>
       <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>2</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="2">
         <v>3</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>1</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>0</v>
-      </c>
-      <c r="R15" s="2">
-        <v>0</v>
-      </c>
-      <c r="S15" s="2">
-        <v>0</v>
-      </c>
-      <c r="T15" s="2">
-        <v>0</v>
-      </c>
-      <c r="U15" s="2">
-        <v>0</v>
-      </c>
-      <c r="V15" s="2">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2">
-        <v>0</v>
-      </c>
-      <c r="X15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AL15" s="2">
-        <v>1</v>
       </c>
       <c r="AM15" s="2">
         <v>12</v>
@@ -2444,10 +2444,10 @@
         <v>52</v>
       </c>
       <c r="B16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2">
         <v>0</v>
@@ -2474,10 +2474,10 @@
         <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
@@ -2492,20 +2492,20 @@
         <v>0</v>
       </c>
       <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
         <v>4</v>
       </c>
-      <c r="S16" s="2">
-        <v>0</v>
-      </c>
-      <c r="T16" s="2">
-        <v>0</v>
-      </c>
-      <c r="U16" s="2">
-        <v>0</v>
-      </c>
-      <c r="V16" s="2">
-        <v>0</v>
-      </c>
       <c r="W16" s="2">
         <v>0</v>
       </c>
@@ -2519,10 +2519,10 @@
         <v>0</v>
       </c>
       <c r="AA16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="2">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="AH16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI16" s="2">
         <v>0</v>
@@ -2549,10 +2549,10 @@
         <v>0</v>
       </c>
       <c r="AK16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16" s="2">
         <v>9</v>
@@ -2563,115 +2563,115 @@
         <v>53</v>
       </c>
       <c r="B17" s="2">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+      <c r="X17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL17" s="2">
         <v>3</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>0</v>
-      </c>
-      <c r="O17" s="2">
-        <v>0</v>
-      </c>
-      <c r="P17" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0</v>
-      </c>
-      <c r="R17" s="2">
-        <v>0</v>
-      </c>
-      <c r="S17" s="2">
-        <v>0</v>
-      </c>
-      <c r="T17" s="2">
-        <v>0</v>
-      </c>
-      <c r="U17" s="2">
-        <v>0</v>
-      </c>
-      <c r="V17" s="2">
-        <v>0</v>
-      </c>
-      <c r="W17" s="2">
-        <v>0</v>
-      </c>
-      <c r="X17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AK17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="2">
-        <v>0</v>
       </c>
       <c r="AM17" s="2">
         <v>9</v>
@@ -2685,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -2718,44 +2718,44 @@
         <v>0</v>
       </c>
       <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2">
         <v>8</v>
       </c>
-      <c r="O18" s="2">
-        <v>0</v>
-      </c>
-      <c r="P18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>0</v>
-      </c>
-      <c r="R18" s="2">
-        <v>0</v>
-      </c>
-      <c r="S18" s="2">
-        <v>0</v>
-      </c>
-      <c r="T18" s="2">
-        <v>0</v>
-      </c>
-      <c r="U18" s="2">
-        <v>0</v>
-      </c>
-      <c r="V18" s="2">
-        <v>0</v>
-      </c>
-      <c r="W18" s="2">
-        <v>0</v>
-      </c>
-      <c r="X18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="2">
-        <v>0</v>
-      </c>
       <c r="AA18" s="2">
         <v>0</v>
       </c>
@@ -2787,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL18" s="2">
         <v>0</v>
@@ -2804,10 +2804,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -2828,61 +2828,61 @@
         <v>0</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="2">
         <v>0</v>
       </c>
       <c r="M19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="2">
         <v>0</v>
       </c>
       <c r="O19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="2">
         <v>0</v>
       </c>
       <c r="Q19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="2">
         <v>0</v>
       </c>
       <c r="S19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="2">
         <v>0</v>
       </c>
       <c r="U19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="2">
         <v>0</v>
       </c>
       <c r="W19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" s="2">
         <v>0</v>
       </c>
       <c r="Y19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19" s="2">
         <v>0</v>
       </c>
       <c r="AA19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="2">
         <v>0</v>
       </c>
       <c r="AC19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD19" s="2">
         <v>0</v>
@@ -2903,10 +2903,10 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK19" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="2">
         <v>0</v>
@@ -2929,97 +2929,97 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
+        <v>0</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2">
         <v>2</v>
       </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2">
+      <c r="AA20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="2">
         <v>2</v>
-      </c>
-      <c r="O20" s="2">
-        <v>0</v>
-      </c>
-      <c r="P20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0</v>
-      </c>
-      <c r="R20" s="2">
-        <v>0</v>
-      </c>
-      <c r="S20" s="2">
-        <v>0</v>
-      </c>
-      <c r="T20" s="2">
-        <v>0</v>
-      </c>
-      <c r="U20" s="2">
-        <v>0</v>
-      </c>
-      <c r="V20" s="2">
-        <v>0</v>
-      </c>
-      <c r="W20" s="2">
-        <v>0</v>
-      </c>
-      <c r="X20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="2">
-        <v>0</v>
       </c>
       <c r="AJ20" s="2">
         <v>0</v>
@@ -3042,19 +3042,19 @@
         <v>0</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -3132,19 +3132,19 @@
         <v>0</v>
       </c>
       <c r="AG21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI21" s="2">
         <v>0</v>
       </c>
       <c r="AJ21" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL21" s="2">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2">
         <v>0</v>
@@ -3236,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="2">
         <v>0</v>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="AG22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH22" s="2">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="2">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -3292,86 +3292,86 @@
         <v>0</v>
       </c>
       <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="2">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2">
+        <v>0</v>
+      </c>
+      <c r="T23" s="2">
+        <v>1</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0</v>
+      </c>
+      <c r="V23" s="2">
+        <v>0</v>
+      </c>
+      <c r="W23" s="2">
+        <v>0</v>
+      </c>
+      <c r="X23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="2">
         <v>2</v>
       </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0</v>
-      </c>
-      <c r="P23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0</v>
-      </c>
-      <c r="R23" s="2">
-        <v>0</v>
-      </c>
-      <c r="S23" s="2">
-        <v>0</v>
-      </c>
-      <c r="T23" s="2">
-        <v>1</v>
-      </c>
-      <c r="U23" s="2">
-        <v>0</v>
-      </c>
-      <c r="V23" s="2">
-        <v>0</v>
-      </c>
-      <c r="W23" s="2">
-        <v>0</v>
-      </c>
-      <c r="X23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="2">
-        <v>0</v>
-      </c>
       <c r="AH23" s="2">
         <v>0</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="AK23" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="2">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -3429,50 +3429,50 @@
         <v>0</v>
       </c>
       <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0</v>
+      </c>
+      <c r="V24" s="2">
+        <v>0</v>
+      </c>
+      <c r="W24" s="2">
+        <v>0</v>
+      </c>
+      <c r="X24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="2">
         <v>2</v>
       </c>
-      <c r="N24" s="2">
-        <v>0</v>
-      </c>
-      <c r="O24" s="2">
-        <v>0</v>
-      </c>
-      <c r="P24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>0</v>
-      </c>
-      <c r="R24" s="2">
-        <v>0</v>
-      </c>
-      <c r="S24" s="2">
-        <v>0</v>
-      </c>
-      <c r="T24" s="2">
-        <v>0</v>
-      </c>
-      <c r="U24" s="2">
-        <v>0</v>
-      </c>
-      <c r="V24" s="2">
-        <v>0</v>
-      </c>
-      <c r="W24" s="2">
-        <v>0</v>
-      </c>
-      <c r="X24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="2">
-        <v>0</v>
-      </c>
       <c r="AB24" s="2">
         <v>0</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>1</v>
       </c>
       <c r="AK24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL24" s="2">
         <v>0</v>
@@ -3515,22 +3515,22 @@
         <v>61</v>
       </c>
       <c r="B25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
       </c>
       <c r="G25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -3608,22 +3608,22 @@
         <v>0</v>
       </c>
       <c r="AG25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH25" s="2">
         <v>0</v>
       </c>
       <c r="AI25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM25" s="2">
         <v>5</v>
@@ -3637,10 +3637,10 @@
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -3664,7 +3664,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M26" s="2">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" s="2">
         <v>0</v>
@@ -3694,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26" s="2">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="AB26" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="2">
         <v>0</v>
@@ -3736,10 +3736,10 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL26" s="2">
         <v>0</v>
@@ -3756,13 +3756,13 @@
         <v>0</v>
       </c>
       <c r="C27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
       </c>
       <c r="E27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="2">
         <v>0</v>
@@ -3783,16 +3783,16 @@
         <v>0</v>
       </c>
       <c r="L27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="2">
         <v>0</v>
       </c>
       <c r="O27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="2">
         <v>0</v>
@@ -3822,16 +3822,16 @@
         <v>0</v>
       </c>
       <c r="Y27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27" s="2">
         <v>0</v>
       </c>
       <c r="AA27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="2">
         <v>0</v>
@@ -3852,13 +3852,13 @@
         <v>0</v>
       </c>
       <c r="AI27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ27" s="2">
         <v>0</v>
       </c>
       <c r="AK27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27" s="2">
         <v>0</v>
@@ -3875,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="C28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2">
         <v>0</v>
       </c>
       <c r="F28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="2">
         <v>0</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" s="2">
         <v>0</v>
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28" s="2">
         <v>0</v>
@@ -3968,16 +3968,16 @@
         <v>0</v>
       </c>
       <c r="AH28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI28" s="2">
         <v>0</v>
       </c>
       <c r="AJ28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK28" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="2">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
@@ -4042,13 +4042,13 @@
         <v>0</v>
       </c>
       <c r="S29" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" s="2">
         <v>0</v>
       </c>
       <c r="U29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" s="2">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK29" s="2">
         <v>0</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="2">
         <v>0</v>
@@ -4158,19 +4158,19 @@
         <v>0</v>
       </c>
       <c r="R30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="2">
         <v>0</v>
       </c>
       <c r="U30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" s="2">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="2">
         <v>0</v>
@@ -4232,10 +4232,10 @@
         <v>0</v>
       </c>
       <c r="C31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="R31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31" s="2">
         <v>0</v>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="2">
         <v>0</v>
@@ -4331,10 +4331,10 @@
         <v>0</v>
       </c>
       <c r="AJ31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK31" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL31" s="2">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2">
         <v>0</v>
@@ -4381,13 +4381,13 @@
         <v>0</v>
       </c>
       <c r="M32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" s="2">
         <v>0</v>
       </c>
       <c r="O32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="2">
         <v>0</v>
@@ -4417,13 +4417,13 @@
         <v>0</v>
       </c>
       <c r="Y32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32" s="2">
         <v>0</v>
       </c>
       <c r="AA32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB32" s="2">
         <v>0</v>
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="AJ32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK32" s="2">
         <v>0</v>
@@ -4470,10 +4470,10 @@
         <v>0</v>
       </c>
       <c r="C33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -4497,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="2">
         <v>0</v>
@@ -4545,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="AB33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC33" s="2">
         <v>0</v>
@@ -4569,10 +4569,10 @@
         <v>0</v>
       </c>
       <c r="AJ33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="2">
         <v>0</v>
@@ -4592,7 +4592,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -4688,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK34" s="2">
         <v>1</v>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" s="2">
         <v>0</v>
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="R35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35" s="2">
         <v>0</v>
@@ -4765,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="2">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="AA35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB35" s="2">
         <v>0</v>
@@ -4943,10 +4943,10 @@
         <v>73</v>
       </c>
       <c r="B37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="2">
         <v>0</v>
@@ -5048,10 +5048,10 @@
         <v>0</v>
       </c>
       <c r="AK37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL37" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="2">
         <v>2</v>
@@ -5095,13 +5095,13 @@
         <v>0</v>
       </c>
       <c r="M38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" s="2">
         <v>0</v>
       </c>
       <c r="O38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" s="2">
         <v>0</v>
@@ -5131,13 +5131,13 @@
         <v>0</v>
       </c>
       <c r="Y38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z38" s="2">
         <v>0</v>
       </c>
       <c r="AA38" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="2">
         <v>0</v>
@@ -5181,7 +5181,7 @@
         <v>75</v>
       </c>
       <c r="B39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="2">
         <v>0</v>
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="AH39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI39" s="2">
         <v>0</v>
@@ -5289,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="AL39" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="2">
         <v>2</v>
@@ -5303,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D40" s="2">
         <v>0</v>
@@ -5405,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="AK40" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL40" s="2">
         <v>0</v>
@@ -5419,10 +5419,10 @@
         <v>77</v>
       </c>
       <c r="B41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="2">
         <v>0</v>
@@ -5524,10 +5524,10 @@
         <v>0</v>
       </c>
       <c r="AK41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL41" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="2">
         <v>2</v>
@@ -5663,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="D43" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" s="2">
         <v>0</v>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="AJ43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK43" s="2">
         <v>0</v>
@@ -5779,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="2">
         <v>0</v>
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" s="2">
         <v>0</v>
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="Y44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z44" s="2">
         <v>0</v>
@@ -5881,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="AK44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL44" s="2">
         <v>0</v>
@@ -5898,7 +5898,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="2">
         <v>0</v>
@@ -6000,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="AK45" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45" s="2">
         <v>0</v>
@@ -6014,7 +6014,7 @@
         <v>82</v>
       </c>
       <c r="B46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C46" s="2">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="AL46" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="2">
         <v>1</v>
@@ -6133,7 +6133,7 @@
         <v>83</v>
       </c>
       <c r="B47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="2">
         <v>0</v>
@@ -6241,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="AL47" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47" s="2">
         <v>1</v>
@@ -6252,7 +6252,7 @@
         <v>84</v>
       </c>
       <c r="B48" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="2">
         <v>0</v>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="AL48" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" s="2">
         <v>1</v>
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" s="2">
         <v>0</v>
@@ -6476,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="AK49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL49" s="2">
         <v>0</v>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" s="2">
         <v>0</v>
@@ -6559,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="Y50" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z50" s="2">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="2">
         <v>0</v>
@@ -6714,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="AK51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL51" s="2">
         <v>0</v>
@@ -6758,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="2">
         <v>0</v>
@@ -6806,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="AB52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC52" s="2">
         <v>0</v>
@@ -6850,7 +6850,7 @@
         <v>0</v>
       </c>
       <c r="C53" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" s="2">
         <v>0</v>
@@ -6952,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="AK53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL53" s="2">
         <v>0</v>
@@ -6996,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" s="2">
         <v>0</v>
@@ -7044,7 +7044,7 @@
         <v>0</v>
       </c>
       <c r="AB54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC54" s="2">
         <v>0</v>
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" s="2">
         <v>0</v>
@@ -7163,7 +7163,7 @@
         <v>0</v>
       </c>
       <c r="AB55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC55" s="2">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="D56" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" s="2">
         <v>0</v>
@@ -7306,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="AJ56" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK56" s="2">
         <v>0</v>
